--- a/results_small/Res_Simulate_data_small_availability.xlsx
+++ b/results_small/Res_Simulate_data_small_availability.xlsx
@@ -46,8 +46,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCACAD7"/>
-        <bgColor rgb="FFCACAD7"/>
+        <fgColor rgb="FFF9D2D6"/>
+        <bgColor rgb="FFF9D2D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -64,20 +64,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9D2D6"/>
-        <bgColor rgb="FFF9D2D6"/>
+        <fgColor rgb="FF8EEAC7"/>
+        <bgColor rgb="FF8EEAC7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACAD7"/>
+        <bgColor rgb="FFCACAD7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4E3E7"/>
         <bgColor rgb="FFF4E3E7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8EEAC7"/>
-        <bgColor rgb="FF8EEAC7"/>
       </patternFill>
     </fill>
   </fills>
@@ -108,8 +108,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2</v>
+        <v>-1.978788153538208</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.02100396156311</v>
+        <v>10.16636395454407</v>
       </c>
     </row>
     <row r="4">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>6.63515781153381e-08</v>
       </c>
     </row>
     <row r="5">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>378292</v>
+        <v>405312</v>
       </c>
     </row>
     <row r="4">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.3</v>
+        <v>7.48</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9138</v>
+        <v>21143</v>
       </c>
     </row>
     <row r="3">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9154</v>
+        <v>24169</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18292</v>
+        <v>45312</v>
       </c>
     </row>
   </sheetData>
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +895,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +909,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,24 +943,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Person 3</t>
+          <t>Person 2</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 4</t>
+          <t>Person 3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -969,7 +969,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Person 8</t>
+          <t>Person 4</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -982,111 +982,111 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 11</t>
+          <t>Person 8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 12</t>
+          <t>Person 11</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 13</t>
+          <t>Person 12</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 19</t>
+          <t>Person 13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 20</t>
+          <t>Person 14</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 26</t>
+          <t>Person 19</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 28</t>
+          <t>Person 20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 30</t>
+          <t>Person 22</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 31</t>
+          <t>Person 26</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1099,7 +1099,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 32</t>
+          <t>Person 28</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1112,20 +1112,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Person 34</t>
+          <t>Person 29</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Person 37</t>
+          <t>Person 30</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1138,102 +1138,102 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Person 41</t>
+          <t>Person 31</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Person 45</t>
+          <t>Person 32</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 46</t>
+          <t>Person 34</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 55</t>
+          <t>Person 37</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 58</t>
+          <t>Person 41</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 59</t>
+          <t>Person 43</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Person 63</t>
+          <t>Person 45</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Person 65</t>
+          <t>Person 46</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="n">
         <v>5</v>
@@ -1242,102 +1242,102 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 68</t>
+          <t>Person 54</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 76</t>
+          <t>Person 55</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Person 78</t>
+          <t>Person 56</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Person 81</t>
+          <t>Person 58</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 90</t>
+          <t>Person 59</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Person 103</t>
+          <t>Person 63</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Person 109</t>
+          <t>Person 64</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Person 112</t>
+          <t>Person 65</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
         <v>4</v>
@@ -1346,7 +1346,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Person 116</t>
+          <t>Person 68</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1354,6 +1354,305 @@
       </c>
       <c r="C33" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Person 70</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Person 71</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Person 76</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Person 78</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Person 81</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Person 82</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Person 86</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Person 89</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Person 90</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Person 91</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Person 92</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Person 93</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Person 96</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Person 97</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Person 99</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Person 100</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Person 103</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Person 109</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Person 111</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Person 112</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Person 116</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Person 118</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Person 120</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1367,7 +1666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1405,71 +1704,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Person 12</t>
+          <t>Person 13</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Person 13</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 34</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Person 26</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 41</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Person 30</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="n"/>
+          <t>Person 55</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>MDCA</t>
@@ -1479,17 +1778,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Person 34</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 59</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
       <c r="H6" s="4" t="n"/>
@@ -1502,20 +1801,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Person 41</t>
+          <t>Person 64</t>
         </is>
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="n"/>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="n"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>GS</t>
@@ -1525,15 +1824,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Person 55</t>
+          <t>Person 78</t>
         </is>
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
@@ -1548,20 +1847,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Person 59</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="n"/>
+          <t>Person 109</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="n"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>OTS</t>
@@ -1571,20 +1870,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Person 63</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n"/>
+          <t>Person 20</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="n"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>SAR</t>
@@ -1594,118 +1898,128 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Person 78</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 30</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Person 37</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 11</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Person 11</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 12</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
+        <is>
+          <t>SAR</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Person 45</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 37</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Person 76</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
+          <t>Person 45</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>GS</t>
         </is>
@@ -1741,212 +2055,237 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Person 20</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Person 109</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>Person 19</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Person 3</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>OTS</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="inlineStr">
-        <is>
-          <t>OTS</t>
+          <t>Person 56</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Person 90</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
+          <t>Person 63</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>MDCA</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Person 4</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 71</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Person 8</t>
-        </is>
-      </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F22" s="7" t="inlineStr">
-        <is>
-          <t>OTS</t>
+          <t>Person 93</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Person 19</t>
-        </is>
-      </c>
-      <c r="E23" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 111</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Person 28</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="F24" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 14</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Person 31</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 96</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Person 32</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
-        </is>
-      </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>DONS</t>
+          <t>Person 99</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Person 46</t>
+          <t>Person 3</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>OTS</t>
         </is>
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>OTS</t>
         </is>
       </c>
       <c r="F27" s="6" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>OTS</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Person 58</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
+          <t>Person 90</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
       </c>
-      <c r="F28" s="5" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr">
         <is>
           <t>MDCA</t>
         </is>
@@ -1955,83 +2294,499 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Person 65</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="F29" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 97</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Person 68</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F30" s="6" t="inlineStr">
-        <is>
-          <t>GS</t>
+          <t>Person 22</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Person 81</t>
-        </is>
-      </c>
-      <c r="E31" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F31" s="5" t="inlineStr">
-        <is>
-          <t>MDCA</t>
+          <t>Person 29</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Person 103</t>
+          <t>Person 54</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
         <is>
-          <t>MDCA</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
+          <t>GS</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Person 58</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Person 65</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Person 70</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Person 76</t>
+        </is>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Person 89</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Person 92</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Person 120</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Person 46</t>
+        </is>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Person 82</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Person 118</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Person 4</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Person 8</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="inlineStr">
+        <is>
+          <t>OTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Person 26</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Person 28</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Person 31</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Person 32</t>
+        </is>
+      </c>
+      <c r="E48" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>DONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Person 43</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Person 68</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Person 81</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Person 86</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Person 91</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Person 100</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Person 103</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>MDCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>Person 116</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>GO</t>
-        </is>
-      </c>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t>GO</t>
         </is>
@@ -2095,19 +2850,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>-0</v>
@@ -2120,19 +2875,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>-0</v>
@@ -2145,19 +2900,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
@@ -2170,19 +2925,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>-0</v>
@@ -2198,16 +2953,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9951</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
@@ -2220,16 +2975,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
